--- a/tests/integration/data/Renderer021-ShowCell/template.xlsx
+++ b/tests/integration/data/Renderer021-ShowCell/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petricahorlescu/Downloads/settlement-poc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petricahorlescu/Documents/GIT/MillTechFX.xlsx-renderer/tests/integration/data/Renderer021-ShowCell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AD562-93A8-7948-A563-237016821F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C64EA8-B30A-5B47-919A-03B27DAD7E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{51D64FAE-FDF3-4046-A668-3472FA61F864}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#! END_LOOP row</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>#! SHOW_CELL middleName.show row.middleName</t>
+  </si>
+  <si>
+    <t>#! END_ROW</t>
+  </si>
+  <si>
+    <t>#! END_ROW true</t>
   </si>
 </sst>
 </file>
@@ -464,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CB5A86-9F62-4CA9-8E69-0560B4CC82E1}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -488,8 +494,11 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -505,8 +514,11 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
